--- a/Datos/Anuario2024/120604_AguasResiduales.xlsx
+++ b/Datos/Anuario2024/120604_AguasResiduales.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12090" tabRatio="813" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12090" tabRatio="813"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="7" r:id="rId2"/>
+    <sheet name="2" sheetId="83" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_1">#REF!</definedName>
@@ -74,6 +80,7 @@
     <definedName name="_R9_8">#REF!</definedName>
     <definedName name="a1_">#REF!</definedName>
     <definedName name="a12_">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1'!$A$1:$H$12</definedName>
     <definedName name="bla">#REF!</definedName>
     <definedName name="nuev">#REF!</definedName>
     <definedName name="Nuevo">#REF!</definedName>
@@ -108,107 +115,309 @@
     <definedName name="wqrqrqwrqwrqr">#REF!</definedName>
     <definedName name="xcvbcxvx">#REF!</definedName>
     <definedName name="yyyty6">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1'!$A$1:$H$12</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>10.  Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11.  Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12.  Camins al Grau</t>
+  </si>
+  <si>
+    <t>13.  Algirós</t>
+  </si>
+  <si>
+    <t>14.  Benimaclet</t>
+  </si>
+  <si>
+    <t>15.  Rascanya</t>
+  </si>
+  <si>
+    <t>16.  Benicalap</t>
+  </si>
+  <si>
+    <t>17.  Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18.  Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19.  Pobles del Sud</t>
+  </si>
+  <si>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>Ovoide</t>
+  </si>
+  <si>
+    <t>Rectangular</t>
+  </si>
+  <si>
+    <t>Irregular</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t>Depuradora</t>
+  </si>
+  <si>
+    <t>Pinedo 1</t>
+  </si>
+  <si>
+    <t>Pinedo 2</t>
+  </si>
+  <si>
+    <t>Perellonet</t>
+  </si>
+  <si>
+    <t>Conca Carraixet</t>
+  </si>
+  <si>
+    <t>Casal d'Esplai</t>
+  </si>
+  <si>
+    <t>Municipios servidos</t>
+  </si>
+  <si>
+    <t>Colectores longitud &lt; 1.500 mm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Colectores </t>
+  </si>
+  <si>
+    <t>Número Pozos</t>
+  </si>
+  <si>
+    <t>Número Imbornales</t>
+  </si>
+  <si>
+    <r>
+      <t>Caudal diario (m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reducción DBO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>Reducción DQO</t>
+  </si>
+  <si>
+    <t>Gestión</t>
+  </si>
+  <si>
+    <t>Población equivalente</t>
+  </si>
+  <si>
+    <t>Colectores longitud 
+≥ 1.500 mm.</t>
+  </si>
+  <si>
+    <t>Eliminación Sustancias Sólidas</t>
+  </si>
+  <si>
+    <t>el Palmar</t>
+  </si>
+  <si>
+    <t>el Saler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.  Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.  l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.  Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.  Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.  la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.  el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7.  l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.  Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.  Jesús</t>
+  </si>
+  <si>
+    <t>València y parte de l'Horta</t>
+  </si>
+  <si>
+    <t>València y parte de l'Horta Nord</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio del Ciclo Integral del Agua. Ayuntamiento de València. Entidad Pública de Saneamiento de Aguas Residuales de la Comunidad Valenciana (EPSAR).</t>
+  </si>
+  <si>
+    <t>SANEAMIENTO DE AGUAS RESIDUALES</t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>EPSAR</t>
+  </si>
+  <si>
+    <t>1. Saneamiento de aguas residuales. 2023</t>
+  </si>
+  <si>
+    <t>2. Longitud (metros) de la red de saneamiento del agua. 2023</t>
+  </si>
+  <si>
+    <t>Fuente: Sección de Explotación de Saneamiento y Alcantarillado. Servicio del Ciclo Integral del Agua. Ayuntamiento de València.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
-      <vertAlign val="superscript"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
-      <vertAlign val="subscript"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -248,116 +457,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="3">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 11" xfId="8"/>
+    <cellStyle name="Normal 15" xfId="7"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
+    <cellStyle name="Normal 2_2.4" xfId="5"/>
     <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="4"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 2_2.4" xfId="5"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal 15" xfId="7"/>
-    <cellStyle name="Normal 11" xfId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -426,7 +635,21 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFECFFD9"/>
+      <color rgb="FF336600"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FF2C7C7C"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -716,1253 +939,1119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="45.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>SANEAMIENTO DE AGUAS RESIDUALES</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja10">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="1"/>
-    <col width="26.7109375" customWidth="1" min="2" max="2"/>
-    <col width="10.7109375" customWidth="1" min="3" max="7"/>
-    <col width="10.7109375" customWidth="1" style="2" min="8" max="8"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>1. Saneamiento de aguas residuales. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="21" t="n"/>
-      <c r="C1" s="21" t="n"/>
-      <c r="D1" s="21" t="n"/>
-      <c r="E1" s="21" t="n"/>
-      <c r="F1" s="21" t="n"/>
-      <c r="G1" s="21" t="n"/>
-      <c r="H1" s="28" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="n"/>
-      <c r="B2" s="21" t="n"/>
-      <c r="C2" s="21" t="n"/>
-      <c r="D2" s="21" t="n"/>
-      <c r="E2" s="21" t="n"/>
-      <c r="F2" s="21" t="n"/>
-      <c r="G2" s="21" t="n"/>
-      <c r="H2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="27" customHeight="1">
-      <c r="A3" s="36" t="inlineStr">
-        <is>
-          <t>Depuradora</t>
-        </is>
-      </c>
-      <c r="B3" s="36" t="inlineStr">
-        <is>
-          <t>Municipios servidos</t>
-        </is>
-      </c>
-      <c r="C3" s="34" t="inlineStr">
-        <is>
-          <t>Caudal diario (m3)</t>
-        </is>
-      </c>
-      <c r="D3" s="34" t="inlineStr">
-        <is>
-          <t>Población equivalente</t>
-        </is>
-      </c>
-      <c r="E3" s="34" t="inlineStr">
-        <is>
-          <t>Eliminación Sustancias Sólidas</t>
-        </is>
-      </c>
-      <c r="F3" s="34" t="inlineStr">
-        <is>
-          <t>Reducción DBO5</t>
-        </is>
-      </c>
-      <c r="G3" s="34" t="inlineStr">
-        <is>
-          <t>Reducción DQO</t>
-        </is>
-      </c>
-      <c r="H3" s="34" t="inlineStr">
-        <is>
-          <t>Gestión</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1"/>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="21" t="inlineStr">
-        <is>
-          <t>el Palmar</t>
-        </is>
-      </c>
-      <c r="B5" s="20" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="n">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11">
         <v>476</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>1558</v>
       </c>
-      <c r="E5" s="12" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F5" s="12" t="n">
+      <c r="E5" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="F5" s="12">
         <v>0.97</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="12">
         <v>0.92</v>
       </c>
-      <c r="H5" s="28" t="inlineStr">
-        <is>
-          <t>Municipal</t>
-        </is>
-      </c>
-      <c r="J5" s="14" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="22" t="inlineStr">
-        <is>
-          <t>el Saler</t>
-        </is>
-      </c>
-      <c r="B6" s="23" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="C6" s="24" t="n">
+      <c r="H5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="24">
         <v>1614</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="24">
         <v>3448</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="25">
         <v>0.91</v>
       </c>
-      <c r="F6" s="25" t="n">
+      <c r="F6" s="25">
         <v>0.97</v>
       </c>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="25">
         <v>0.89</v>
       </c>
-      <c r="H6" s="26" t="inlineStr">
-        <is>
-          <t>Municipal</t>
-        </is>
-      </c>
-      <c r="J6" s="14" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="21" t="inlineStr">
-        <is>
-          <t>Perellonet</t>
-        </is>
-      </c>
-      <c r="B7" s="20" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="n">
+      <c r="H6" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11">
         <v>1276</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>3020</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="12">
         <v>0.9</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="12">
         <v>0.96</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="12">
         <v>0.91</v>
       </c>
-      <c r="H7" s="28" t="inlineStr">
-        <is>
-          <t>Municipal</t>
-        </is>
-      </c>
-      <c r="J7" s="14" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="22" t="inlineStr">
-        <is>
-          <t>Casal d'Esplai</t>
-        </is>
-      </c>
-      <c r="B8" s="23" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="C8" s="24" t="n">
+      <c r="H7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="24">
         <v>5</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D8" s="24">
         <v>4</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="25">
         <v>0.73</v>
       </c>
-      <c r="F8" s="25" t="n">
+      <c r="F8" s="25">
         <v>0.78</v>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="25">
         <v>0.74</v>
       </c>
-      <c r="H8" s="26" t="inlineStr">
-        <is>
-          <t>Municipal</t>
-        </is>
-      </c>
-      <c r="J8" s="14" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="21" t="inlineStr">
-        <is>
-          <t>Pinedo 1</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="C9" s="11" t="n">
+      <c r="H8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11">
         <v>120880</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>310380</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="18">
         <v>0.91</v>
       </c>
-      <c r="F9" s="18" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G9" s="18" t="n">
+      <c r="F9" s="18">
+        <v>0.94</v>
+      </c>
+      <c r="G9" s="18">
         <v>0.87</v>
       </c>
-      <c r="H9" s="28" t="inlineStr">
-        <is>
-          <t>EPSAR</t>
-        </is>
-      </c>
-      <c r="J9" s="14" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="22" t="inlineStr">
-        <is>
-          <t>Pinedo 2</t>
-        </is>
-      </c>
-      <c r="B10" s="23" t="inlineStr">
-        <is>
-          <t>València y parte de l'Horta</t>
-        </is>
-      </c>
-      <c r="C10" s="24" t="n">
+      <c r="H9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="24">
         <v>216364</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="27">
         <v>750354</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="25">
         <v>0.96</v>
       </c>
-      <c r="F10" s="25" t="n">
+      <c r="F10" s="25">
         <v>0.96</v>
       </c>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="25">
         <v>0.93</v>
       </c>
-      <c r="H10" s="26" t="inlineStr">
-        <is>
-          <t>EPSAR</t>
-        </is>
-      </c>
-      <c r="J10" s="14" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="21" t="inlineStr">
-        <is>
-          <t>Conca Carraixet</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="inlineStr">
-        <is>
-          <t>València y parte de l'Horta Nord</t>
-        </is>
-      </c>
-      <c r="C11" s="11" t="n">
+      <c r="H10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="11">
         <v>35760</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>113536</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="12">
         <v>0.95</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="12">
         <v>0.96</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="12">
         <v>0.92</v>
       </c>
-      <c r="H11" s="28" t="inlineStr">
-        <is>
-          <t>EPSAR</t>
-        </is>
-      </c>
-      <c r="J11" s="14" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio del Ciclo Integral del Agua. Ayuntamiento de València. Entidad Pública de Saneamiento de Aguas Residuales de la Comunidad Valenciana (EPSAR).</t>
-        </is>
+      <c r="H11" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="91" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja11">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="20.7109375" customWidth="1" min="1" max="1"/>
-    <col width="11.7109375" customWidth="1" min="2" max="10"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>2. Longitud (metros) de la red de saneamiento del agua. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="21" t="n"/>
-      <c r="C1" s="21" t="n"/>
-      <c r="D1" s="21" t="n"/>
-      <c r="E1" s="21" t="n"/>
-      <c r="F1" s="21" t="n"/>
-      <c r="G1" s="21" t="n"/>
-      <c r="H1" s="21" t="n"/>
-      <c r="I1" s="21" t="n"/>
-      <c r="J1" s="21" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="21" t="n"/>
-      <c r="B2" s="21" t="n"/>
-      <c r="C2" s="11" t="n"/>
-      <c r="D2" s="21" t="n"/>
-      <c r="E2" s="21" t="n"/>
-      <c r="F2" s="11" t="n"/>
-      <c r="G2" s="21" t="n"/>
-      <c r="H2" s="21" t="n"/>
-      <c r="I2" s="21" t="n"/>
-      <c r="J2" s="21" t="n"/>
-    </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="29" t="n"/>
-      <c r="B3" s="39" t="inlineStr">
-        <is>
-          <t>Colectores longitud &lt; 1.500 mm.</t>
-        </is>
-      </c>
-      <c r="F3" s="41" t="n"/>
-      <c r="G3" s="40" t="inlineStr">
-        <is>
-          <t>Colectores longitud 
-≥ 1.500 mm.</t>
-        </is>
-      </c>
-      <c r="H3" s="40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total Colectores </t>
-        </is>
-      </c>
-      <c r="I3" s="40" t="inlineStr">
-        <is>
-          <t>Número Pozos</t>
-        </is>
-      </c>
-      <c r="J3" s="34" t="inlineStr">
-        <is>
-          <t>Número Imbornales</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" s="29" t="n"/>
-      <c r="B4" s="34" t="inlineStr">
-        <is>
-          <t>Circular</t>
-        </is>
-      </c>
-      <c r="C4" s="34" t="inlineStr">
-        <is>
-          <t>Ovoide</t>
-        </is>
-      </c>
-      <c r="D4" s="34" t="inlineStr">
-        <is>
-          <t>Rectangular</t>
-        </is>
-      </c>
-      <c r="E4" s="34" t="inlineStr">
-        <is>
-          <t>Irregular</t>
-        </is>
-      </c>
-      <c r="F4" s="40" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="G4" s="41" t="n"/>
-      <c r="H4" s="41" t="n"/>
-      <c r="I4" s="41" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="17" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="19">
         <f>SUM(B6:B24)</f>
-        <v/>
+        <v>1035191</v>
       </c>
       <c r="C5" s="19">
         <f>SUM(C6:C24)</f>
-        <v/>
+        <v>22136</v>
       </c>
       <c r="D5" s="19">
         <f>SUM(D6:D24)</f>
-        <v/>
+        <v>122676</v>
       </c>
       <c r="E5" s="19">
         <f>SUM(E6:E24)</f>
-        <v/>
+        <v>44583</v>
       </c>
       <c r="F5" s="19">
         <f>SUM(B5:E5)</f>
-        <v/>
+        <v>1224586</v>
       </c>
       <c r="G5" s="19">
         <f>SUM(G6:G24)</f>
-        <v/>
+        <v>178842</v>
       </c>
       <c r="H5" s="19">
         <f>SUM(H6:H24)</f>
-        <v/>
+        <v>1403428</v>
       </c>
       <c r="I5" s="19">
         <f>SUM(I6:I24)</f>
-        <v/>
+        <v>66763</v>
       </c>
       <c r="J5" s="19">
         <f>SUM(J6:J24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1.  Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B6" s="24" t="n">
+        <v>72709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="24">
         <v>7999</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="24">
         <v>0</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="24">
         <v>17212</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="24">
         <v>3728</v>
       </c>
       <c r="F6" s="24">
         <f>SUM(B6:E6)</f>
-        <v/>
-      </c>
-      <c r="G6" s="24" t="n">
+        <v>28939</v>
+      </c>
+      <c r="G6" s="24">
         <v>23260</v>
       </c>
       <c r="H6" s="24">
         <f>G6+F6</f>
-        <v/>
-      </c>
-      <c r="I6" s="24" t="n">
+        <v>52199</v>
+      </c>
+      <c r="I6" s="24">
         <v>2957</v>
       </c>
-      <c r="J6" s="24" t="n">
+      <c r="J6" s="24">
         <v>4642</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  2.  l'Eixample</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="n">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="11">
         <v>17144</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="13">
         <v>0</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>12507</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="11">
         <v>3109</v>
       </c>
       <c r="F7" s="11">
-        <f>SUM(B7:E7)</f>
-        <v/>
-      </c>
-      <c r="G7" s="11" t="n">
+        <f t="shared" ref="F7:F24" si="0">SUM(B7:E7)</f>
+        <v>32760</v>
+      </c>
+      <c r="G7" s="11">
         <v>10449</v>
       </c>
       <c r="H7" s="11">
-        <f>G7+F7</f>
-        <v/>
-      </c>
-      <c r="I7" s="11" t="n">
+        <f t="shared" ref="H7:H24" si="1">G7+F7</f>
+        <v>43209</v>
+      </c>
+      <c r="I7" s="11">
         <v>2481</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="11">
         <v>3533</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  3.  Extramurs</t>
-        </is>
-      </c>
-      <c r="B8" s="24" t="n">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="24">
         <v>17000</v>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="24">
         <v>585</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D8" s="24">
         <v>12947</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="24">
         <v>4025</v>
       </c>
       <c r="F8" s="24">
-        <f>SUM(B8:E8)</f>
-        <v/>
-      </c>
-      <c r="G8" s="24" t="n">
+        <f t="shared" si="0"/>
+        <v>34557</v>
+      </c>
+      <c r="G8" s="24">
         <v>10024</v>
       </c>
       <c r="H8" s="24">
-        <f>G8+F8</f>
-        <v/>
-      </c>
-      <c r="I8" s="24" t="n">
+        <f t="shared" si="1"/>
+        <v>44581</v>
+      </c>
+      <c r="I8" s="24">
         <v>2235</v>
       </c>
-      <c r="J8" s="24" t="n">
+      <c r="J8" s="24">
         <v>3270</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  4.  Campanar</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="n">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="11">
         <v>59010</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="11">
         <v>2170</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>3399</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="13">
         <v>1386</v>
       </c>
       <c r="F9" s="11">
-        <f>SUM(B9:E9)</f>
-        <v/>
-      </c>
-      <c r="G9" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>65965</v>
+      </c>
+      <c r="G9" s="11">
         <v>19731</v>
       </c>
       <c r="H9" s="11">
-        <f>G9+F9</f>
-        <v/>
-      </c>
-      <c r="I9" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>85696</v>
+      </c>
+      <c r="I9" s="11">
         <v>3434</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="11">
         <v>4133</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  5.  la Saïdia</t>
-        </is>
-      </c>
-      <c r="B10" s="24" t="n">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="24">
         <v>44850</v>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C10" s="24">
         <v>34</v>
       </c>
-      <c r="D10" s="24" t="n">
+      <c r="D10" s="24">
         <v>6096</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="24">
         <v>1078</v>
       </c>
       <c r="F10" s="24">
-        <f>SUM(B10:E10)</f>
-        <v/>
-      </c>
-      <c r="G10" s="24" t="n">
+        <f t="shared" si="0"/>
+        <v>52058</v>
+      </c>
+      <c r="G10" s="24">
         <v>7733</v>
       </c>
       <c r="H10" s="24">
-        <f>G10+F10</f>
-        <v/>
-      </c>
-      <c r="I10" s="24" t="n">
+        <f t="shared" si="1"/>
+        <v>59791</v>
+      </c>
+      <c r="I10" s="24">
         <v>3035</v>
       </c>
-      <c r="J10" s="24" t="n">
+      <c r="J10" s="24">
         <v>3436</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  6.  el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B11" s="11" t="n">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="11">
         <v>34483</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="13">
         <v>57</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>8382</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="13">
         <v>2415</v>
       </c>
       <c r="F11" s="11">
-        <f>SUM(B11:E11)</f>
-        <v/>
-      </c>
-      <c r="G11" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>45337</v>
+      </c>
+      <c r="G11" s="11">
         <v>7306</v>
       </c>
       <c r="H11" s="11">
-        <f>G11+F11</f>
-        <v/>
-      </c>
-      <c r="I11" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>52643</v>
+      </c>
+      <c r="I11" s="11">
         <v>2734</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="11">
         <v>2928</v>
       </c>
-      <c r="K11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  7.  l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B12" s="24" t="n">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="24">
         <v>35749</v>
       </c>
-      <c r="C12" s="24" t="n">
+      <c r="C12" s="24">
         <v>7011</v>
       </c>
-      <c r="D12" s="24" t="n">
+      <c r="D12" s="24">
         <v>5219</v>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="24">
         <v>1188</v>
       </c>
       <c r="F12" s="24">
-        <f>SUM(B12:E12)</f>
-        <v/>
-      </c>
-      <c r="G12" s="24" t="n">
+        <f t="shared" si="0"/>
+        <v>49167</v>
+      </c>
+      <c r="G12" s="24">
         <v>9704</v>
       </c>
       <c r="H12" s="24">
-        <f>G12+F12</f>
-        <v/>
-      </c>
-      <c r="I12" s="24" t="n">
+        <f t="shared" si="1"/>
+        <v>58871</v>
+      </c>
+      <c r="I12" s="24">
         <v>2739</v>
       </c>
-      <c r="J12" s="24" t="n">
+      <c r="J12" s="24">
         <v>3710</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  8.  Patraix</t>
-        </is>
-      </c>
-      <c r="B13" s="11" t="n">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="11">
         <v>50531</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="11">
         <v>2784</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>5396</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="11">
         <v>1930</v>
       </c>
       <c r="F13" s="11">
-        <f>SUM(B13:E13)</f>
-        <v/>
-      </c>
-      <c r="G13" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>60641</v>
+      </c>
+      <c r="G13" s="11">
         <v>10160</v>
       </c>
       <c r="H13" s="11">
-        <f>G13+F13</f>
-        <v/>
-      </c>
-      <c r="I13" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>70801</v>
+      </c>
+      <c r="I13" s="11">
         <v>3392</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="11">
         <v>4649</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  9.  Jesús</t>
-        </is>
-      </c>
-      <c r="B14" s="24" t="n">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="24">
         <v>47904</v>
       </c>
-      <c r="C14" s="24" t="n">
+      <c r="C14" s="24">
         <v>726</v>
       </c>
-      <c r="D14" s="24" t="n">
+      <c r="D14" s="24">
         <v>4540</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="24">
         <v>3469</v>
       </c>
       <c r="F14" s="24">
-        <f>SUM(B14:E14)</f>
-        <v/>
-      </c>
-      <c r="G14" s="24" t="n">
+        <f t="shared" si="0"/>
+        <v>56639</v>
+      </c>
+      <c r="G14" s="24">
         <v>10907</v>
       </c>
       <c r="H14" s="24">
-        <f>G14+F14</f>
-        <v/>
-      </c>
-      <c r="I14" s="24" t="n">
+        <f t="shared" si="1"/>
+        <v>67546</v>
+      </c>
+      <c r="I14" s="24">
         <v>3479</v>
       </c>
-      <c r="J14" s="24" t="n">
+      <c r="J14" s="24">
         <v>3500</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>10.  Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B15" s="11" t="n">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11">
         <v>141886</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="11">
         <v>1639</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>7717</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>6277</v>
       </c>
       <c r="F15" s="11">
-        <f>SUM(B15:E15)</f>
-        <v/>
-      </c>
-      <c r="G15" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>157519</v>
+      </c>
+      <c r="G15" s="11">
         <v>32278</v>
       </c>
       <c r="H15" s="11">
-        <f>G15+F15</f>
-        <v/>
-      </c>
-      <c r="I15" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>189797</v>
+      </c>
+      <c r="I15" s="11">
         <v>7770</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="11">
         <v>7617</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="32" t="inlineStr">
-        <is>
-          <t>11.  Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B16" s="24" t="n">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="24">
         <v>135184</v>
       </c>
-      <c r="C16" s="24" t="n">
+      <c r="C16" s="24">
         <v>174</v>
       </c>
-      <c r="D16" s="24" t="n">
+      <c r="D16" s="24">
         <v>10902</v>
       </c>
-      <c r="E16" s="27" t="n">
+      <c r="E16" s="27">
         <v>1892</v>
       </c>
       <c r="F16" s="24">
-        <f>SUM(B16:E16)</f>
-        <v/>
-      </c>
-      <c r="G16" s="24" t="n">
+        <f t="shared" si="0"/>
+        <v>148152</v>
+      </c>
+      <c r="G16" s="24">
         <v>5301</v>
       </c>
       <c r="H16" s="24">
-        <f>G16+F16</f>
-        <v/>
-      </c>
-      <c r="I16" s="24" t="n">
+        <f t="shared" si="1"/>
+        <v>153453</v>
+      </c>
+      <c r="I16" s="24">
         <v>8286</v>
       </c>
-      <c r="J16" s="24" t="n">
+      <c r="J16" s="24">
         <v>7955</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>12.  Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B17" s="11" t="n">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11">
         <v>45178</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="11">
         <v>2409</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="11">
         <v>4127</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="11">
         <v>2908</v>
       </c>
       <c r="F17" s="11">
-        <f>SUM(B17:E17)</f>
-        <v/>
-      </c>
-      <c r="G17" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>54622</v>
+      </c>
+      <c r="G17" s="11">
         <v>10857</v>
       </c>
       <c r="H17" s="11">
-        <f>G17+F17</f>
-        <v/>
-      </c>
-      <c r="I17" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>65479</v>
+      </c>
+      <c r="I17" s="11">
         <v>3276</v>
       </c>
-      <c r="J17" s="11" t="n">
+      <c r="J17" s="11">
         <v>4063</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="32" t="inlineStr">
-        <is>
-          <t>13.  Algirós</t>
-        </is>
-      </c>
-      <c r="B18" s="24" t="n">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="24">
         <v>55388</v>
       </c>
-      <c r="C18" s="24" t="n">
+      <c r="C18" s="24">
         <v>1950</v>
       </c>
-      <c r="D18" s="24" t="n">
+      <c r="D18" s="24">
         <v>2697</v>
       </c>
-      <c r="E18" s="33" t="n">
+      <c r="E18" s="33">
         <v>1497</v>
       </c>
       <c r="F18" s="24">
-        <f>SUM(B18:E18)</f>
-        <v/>
-      </c>
-      <c r="G18" s="24" t="n">
+        <f t="shared" si="0"/>
+        <v>61532</v>
+      </c>
+      <c r="G18" s="24">
         <v>2061</v>
       </c>
       <c r="H18" s="24">
-        <f>G18+F18</f>
-        <v/>
-      </c>
-      <c r="I18" s="24" t="n">
+        <f t="shared" si="1"/>
+        <v>63593</v>
+      </c>
+      <c r="I18" s="24">
         <v>3173</v>
       </c>
-      <c r="J18" s="24" t="n">
+      <c r="J18" s="24">
         <v>3805</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>14.  Benimaclet</t>
-        </is>
-      </c>
-      <c r="B19" s="11" t="n">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="11">
         <v>40863</v>
       </c>
-      <c r="C19" s="13" t="n">
+      <c r="C19" s="13">
         <v>0</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="11">
         <v>1840</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="11">
         <v>614</v>
       </c>
       <c r="F19" s="11">
-        <f>SUM(B19:E19)</f>
-        <v/>
-      </c>
-      <c r="G19" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>43317</v>
+      </c>
+      <c r="G19" s="11">
         <v>2041</v>
       </c>
       <c r="H19" s="11">
-        <f>G19+F19</f>
-        <v/>
-      </c>
-      <c r="I19" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>45358</v>
+      </c>
+      <c r="I19" s="11">
         <v>2730</v>
       </c>
-      <c r="J19" s="11" t="n">
+      <c r="J19" s="11">
         <v>2119</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="32" t="inlineStr">
-        <is>
-          <t>15.  Rascanya</t>
-        </is>
-      </c>
-      <c r="B20" s="24" t="n">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="24">
         <v>53405</v>
       </c>
-      <c r="C20" s="24" t="n">
+      <c r="C20" s="24">
         <v>600</v>
       </c>
-      <c r="D20" s="24" t="n">
+      <c r="D20" s="24">
         <v>2803</v>
       </c>
-      <c r="E20" s="24" t="n">
+      <c r="E20" s="24">
         <v>643</v>
       </c>
       <c r="F20" s="24">
-        <f>SUM(B20:E20)</f>
-        <v/>
-      </c>
-      <c r="G20" s="24" t="n">
+        <f t="shared" si="0"/>
+        <v>57451</v>
+      </c>
+      <c r="G20" s="24">
         <v>6242</v>
       </c>
       <c r="H20" s="24">
-        <f>G20+F20</f>
-        <v/>
-      </c>
-      <c r="I20" s="24" t="n">
+        <f t="shared" si="1"/>
+        <v>63693</v>
+      </c>
+      <c r="I20" s="24">
         <v>3062</v>
       </c>
-      <c r="J20" s="24" t="n">
+      <c r="J20" s="24">
         <v>3194</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>16.  Benicalap</t>
-        </is>
-      </c>
-      <c r="B21" s="11" t="n">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="11">
         <v>62375</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="11">
         <v>1997</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="11">
         <v>2483</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="9">
         <v>710</v>
       </c>
       <c r="F21" s="11">
-        <f>SUM(B21:E21)</f>
-        <v/>
-      </c>
-      <c r="G21" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>67565</v>
+      </c>
+      <c r="G21" s="11">
         <v>4533</v>
       </c>
       <c r="H21" s="11">
-        <f>G21+F21</f>
-        <v/>
-      </c>
-      <c r="I21" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>72098</v>
+      </c>
+      <c r="I21" s="11">
         <v>3428</v>
       </c>
-      <c r="J21" s="11" t="n">
+      <c r="J21" s="11">
         <v>3457</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="32" t="inlineStr">
-        <is>
-          <t>17.  Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B22" s="24" t="n">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="24">
         <v>43937</v>
       </c>
-      <c r="C22" s="33" t="n">
+      <c r="C22" s="33">
         <v>0</v>
       </c>
-      <c r="D22" s="24" t="n">
+      <c r="D22" s="24">
         <v>2331</v>
       </c>
-      <c r="E22" s="33" t="n">
+      <c r="E22" s="33">
         <v>1237</v>
       </c>
       <c r="F22" s="24">
-        <f>SUM(B22:E22)</f>
-        <v/>
-      </c>
-      <c r="G22" s="24" t="n">
+        <f t="shared" si="0"/>
+        <v>47505</v>
+      </c>
+      <c r="G22" s="24">
         <v>756</v>
       </c>
       <c r="H22" s="24">
-        <f>G22+F22</f>
-        <v/>
-      </c>
-      <c r="I22" s="24" t="n">
+        <f t="shared" si="1"/>
+        <v>48261</v>
+      </c>
+      <c r="I22" s="24">
         <v>2155</v>
       </c>
-      <c r="J22" s="24" t="n">
+      <c r="J22" s="24">
         <v>1509</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>18.  Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B23" s="11" t="n">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11">
         <v>29110</v>
       </c>
-      <c r="C23" s="13" t="n">
+      <c r="C23" s="13">
         <v>0</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="11">
         <v>2616</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E23" s="11">
         <v>1073</v>
       </c>
       <c r="F23" s="11">
-        <f>SUM(B23:E23)</f>
-        <v/>
-      </c>
-      <c r="G23" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>32799</v>
+      </c>
+      <c r="G23" s="11">
         <v>3367</v>
       </c>
       <c r="H23" s="11">
-        <f>G23+F23</f>
-        <v/>
-      </c>
-      <c r="I23" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>36166</v>
+      </c>
+      <c r="I23" s="11">
         <v>1873</v>
       </c>
-      <c r="J23" s="11" t="n">
+      <c r="J23" s="11">
         <v>1881</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="32" t="inlineStr">
-        <is>
-          <t>19.  Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B24" s="24" t="n">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24">
         <v>113195</v>
       </c>
-      <c r="C24" s="33" t="n">
+      <c r="C24" s="33">
         <v>0</v>
       </c>
-      <c r="D24" s="24" t="n">
+      <c r="D24" s="24">
         <v>9462</v>
       </c>
-      <c r="E24" s="24" t="n">
+      <c r="E24" s="24">
         <v>5404</v>
       </c>
       <c r="F24" s="24">
-        <f>SUM(B24:E24)</f>
-        <v/>
-      </c>
-      <c r="G24" s="24" t="n">
+        <f t="shared" si="0"/>
+        <v>128061</v>
+      </c>
+      <c r="G24" s="24">
         <v>2132</v>
       </c>
       <c r="H24" s="24">
-        <f>G24+F24</f>
-        <v/>
-      </c>
-      <c r="I24" s="24" t="n">
+        <f t="shared" si="1"/>
+        <v>130193</v>
+      </c>
+      <c r="I24" s="24">
         <v>4524</v>
       </c>
-      <c r="J24" s="24" t="n">
+      <c r="J24" s="24">
         <v>3308</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="10" t="inlineStr">
-        <is>
-          <t>Fuente: Sección de Explotación de Saneamiento y Alcantarillado. Servicio del Ciclo Integral del Agua. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="M25" s="16" t="n"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="77" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="F5" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>